--- a/eval.xlsx
+++ b/eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IsiTech\Depot4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A6893-E8D6-4904-A355-219C6A4FD738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E544AE-B757-4BEB-8815-BB8B01F5F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9777F284-ABD9-4D46-83B0-A2B94E87FCC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>BABET Noah</t>
   </si>
@@ -119,13 +119,25 @@
     <t>VENAT Samuel</t>
   </si>
   <si>
-    <t>Note sur 80</t>
-  </si>
-  <si>
     <t>note Final</t>
   </si>
   <si>
     <t>Meilleure note sur 80</t>
+  </si>
+  <si>
+    <t>Stagiaire</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Non Répondu</t>
+  </si>
+  <si>
+    <t>Sur 80</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0\/\2\0"/>
+    <numFmt numFmtId="164" formatCode="0\/\2\0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -191,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,26 +211,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,7 +306,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -295,7 +354,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -343,7 +402,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -2084,28 +2143,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD3F341-666B-41C0-8E09-C7967DE3B2FE}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2115,14 +2180,15 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="2">
         <f>IF(D2="","",20*D2/$E$2)</f>
-        <v/>
-      </c>
-      <c r="D2" s="6"/>
+        <v>6.25</v>
+      </c>
+      <c r="D2" s="11">
+        <v>25</v>
+      </c>
       <c r="E2" s="6">
-        <f>MAX(D2:D28)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2132,11 +2198,13 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C28" si="0">IF(D3="","",20*D3/$E$2)</f>
-        <v/>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="C3" s="2">
+        <f>IF(D3="","",20*D3/$E$2)</f>
+        <v>9.75</v>
+      </c>
+      <c r="D3" s="11">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2145,11 +2213,16 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5">
+        <f>IF(D4="","",20*D4/$E$2)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D4" s="11">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2158,11 +2231,17 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="2">
+        <f>IF(D5="","",20*D5/$E$2)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <f>COUNTBLANK(D2:D28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2171,11 +2250,13 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="2">
+        <f>IF(D6="","",20*D6/$E$2)</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="11">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2184,11 +2265,13 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="5">
+        <f>IF(D7="","",20*D7/$E$2)</f>
+        <v>6.25</v>
+      </c>
+      <c r="D7" s="11">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2197,11 +2280,13 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="C8" s="2">
+        <f>IF(D8="","",20*D8/$E$2)</f>
+        <v>8.75</v>
+      </c>
+      <c r="D8" s="11">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2210,11 +2295,13 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="2">
+        <f>IF(D9="","",20*D9/$E$2)</f>
+        <v>9.25</v>
+      </c>
+      <c r="D9" s="11">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2223,11 +2310,13 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="5">
+        <f>IF(D10="","",20*D10/$E$2)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D10" s="11">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2236,11 +2325,13 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="C11" s="2">
+        <f>IF(D11="","",20*D11/$E$2)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2249,11 +2340,13 @@
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="C12" s="2">
+        <f>IF(D12="","",20*D12/$E$2)</f>
+        <v>5.25</v>
+      </c>
+      <c r="D12" s="11">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2262,11 +2355,16 @@
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5">
+        <f>IF(D13="","",20*D13/$E$2)</f>
+        <v>8.75</v>
+      </c>
+      <c r="D13" s="11">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2275,11 +2373,13 @@
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="C14" s="2">
+        <f>IF(D14="","",20*D14/$E$2)</f>
+        <v>10.25</v>
+      </c>
+      <c r="D14" s="11">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2288,11 +2388,13 @@
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="C15" s="2">
+        <f>IF(D15="","",20*D15/$E$2)</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="11">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2301,167 +2403,196 @@
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <f>IF(D16="","",20*D16/$E$2)</f>
+        <v>8.75</v>
+      </c>
+      <c r="D16" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <f>IF(D17="","",20*D17/$E$2)</f>
+        <v>9.75</v>
+      </c>
+      <c r="D17" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <f>IF(D18="","",20*D18/$E$2)</f>
+        <v>9</v>
+      </c>
+      <c r="D18" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>IF(D19="","",20*D19/$E$2)</f>
+        <v>6.5</v>
+      </c>
+      <c r="D19" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <f>IF(D20="","",20*D20/$E$2)</f>
+        <v>11.5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <f>IF(D21="","",20*D21/$E$2)</f>
+        <v>8.25</v>
+      </c>
+      <c r="D21" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <f>IF(D22="","",20*D22/$E$2)</f>
+        <v>9.25</v>
+      </c>
+      <c r="D22" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <f>IF(D23="","",20*D23/$E$2)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D23" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <f>IF(D24="","",20*D24/$E$2)</f>
+        <v>9</v>
+      </c>
+      <c r="D24" s="11">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>IF(D25="","",20*D25/$E$2)</f>
+        <v>7.25</v>
+      </c>
+      <c r="D25" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
+        <f>IF(D26="","",20*D26/$E$2)</f>
+        <v>8.75</v>
+      </c>
+      <c r="D26" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <f>IF(D27="","",20*D27/$E$2)</f>
+        <v>7.25</v>
+      </c>
+      <c r="D27" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D28" s="6"/>
+      <c r="C28" s="5">
+        <f>IF(D28="","",20*D28/$E$2)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D28" s="12">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
